--- a/final.xlsx
+++ b/final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kal2222\source\repos\keithalewis\final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Shen\Source\Repos\final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDECEC16-5D22-4C9F-9072-BB4EA1AA88DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{558D4911-F900-47ED-B77B-6E8AB6B28CAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3308" yWindow="3308" windowWidth="15390" windowHeight="9982" xr2:uid="{59ABE93D-F590-4F15-A965-72CEF18EA92E}"/>
+    <workbookView xWindow="1095" yWindow="825" windowWidth="11520" windowHeight="7890" xr2:uid="{59ABE93D-F590-4F15-A965-72CEF18EA92E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,8 @@
     <definedName name="sigma">Sheet1!$C$3</definedName>
     <definedName name="t">Sheet1!$C$5</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,9 +30,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,14 +38,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -94,19 +93,26 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -477,14 +483,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ED1841A-FD92-4362-9698-89095B3322F2}">
   <dimension ref="B2:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.59765625" customWidth="1"/>
+    <col min="1" max="1" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -492,7 +500,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -500,7 +508,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -508,7 +516,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -528,7 +536,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="F6" s="3" t="s">
         <v>7</v>
       </c>
@@ -545,7 +553,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>4</v>
       </c>
@@ -566,7 +574,7 @@
       </c>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -574,7 +582,10 @@
         <f t="array" ref="C8">_xll.XLL.BLACK.PUT(f, sigma, k, t)</f>
         <v>3.987761167674492</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, k, t)</f>
+        <v>3.9960690164368557</v>
+      </c>
       <c r="F8">
         <v>71</v>
       </c>
@@ -589,7 +600,7 @@
       </c>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="F9">
         <v>72</v>
       </c>
@@ -604,7 +615,7 @@
       </c>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="F10">
         <v>73</v>
       </c>
@@ -619,7 +630,7 @@
       </c>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="F11">
         <v>74</v>
       </c>
@@ -634,7 +645,7 @@
       </c>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="F12">
         <v>75</v>
       </c>
@@ -649,7 +660,7 @@
       </c>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="F13">
         <v>76</v>
       </c>
@@ -664,7 +675,7 @@
       </c>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="F14">
         <v>77</v>
       </c>
@@ -679,7 +690,7 @@
       </c>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="F15">
         <v>78</v>
       </c>
@@ -694,7 +705,7 @@
       </c>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="F16">
         <v>79</v>
       </c>
@@ -709,7 +720,7 @@
       </c>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="6:10" x14ac:dyDescent="0.45">
+    <row r="17" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F17">
         <v>80</v>
       </c>
@@ -724,7 +735,7 @@
       </c>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="6:10" x14ac:dyDescent="0.45">
+    <row r="18" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F18">
         <v>81</v>
       </c>
@@ -739,7 +750,7 @@
       </c>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="6:10" x14ac:dyDescent="0.45">
+    <row r="19" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F19">
         <v>82</v>
       </c>
@@ -754,7 +765,7 @@
       </c>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="6:10" x14ac:dyDescent="0.45">
+    <row r="20" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F20">
         <v>83</v>
       </c>
@@ -769,7 +780,7 @@
       </c>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="6:10" x14ac:dyDescent="0.45">
+    <row r="21" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F21">
         <v>84</v>
       </c>
@@ -784,7 +795,7 @@
       </c>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="6:10" x14ac:dyDescent="0.45">
+    <row r="22" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F22">
         <v>85</v>
       </c>
@@ -799,7 +810,7 @@
       </c>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="6:10" x14ac:dyDescent="0.45">
+    <row r="23" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F23">
         <v>86</v>
       </c>
@@ -814,7 +825,7 @@
       </c>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="6:10" x14ac:dyDescent="0.45">
+    <row r="24" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F24">
         <v>87</v>
       </c>
@@ -829,7 +840,7 @@
       </c>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="6:10" x14ac:dyDescent="0.45">
+    <row r="25" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F25">
         <v>88</v>
       </c>
@@ -844,7 +855,7 @@
       </c>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="6:10" x14ac:dyDescent="0.45">
+    <row r="26" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F26">
         <v>89</v>
       </c>
@@ -859,7 +870,7 @@
       </c>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="6:10" x14ac:dyDescent="0.45">
+    <row r="27" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F27">
         <v>90</v>
       </c>
@@ -874,7 +885,7 @@
       </c>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="6:10" x14ac:dyDescent="0.45">
+    <row r="28" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F28">
         <v>91</v>
       </c>
@@ -889,7 +900,7 @@
       </c>
       <c r="J28" s="2"/>
     </row>
-    <row r="29" spans="6:10" x14ac:dyDescent="0.45">
+    <row r="29" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F29">
         <v>92</v>
       </c>
@@ -904,7 +915,7 @@
       </c>
       <c r="J29" s="2"/>
     </row>
-    <row r="30" spans="6:10" x14ac:dyDescent="0.45">
+    <row r="30" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F30">
         <v>93</v>
       </c>
@@ -919,7 +930,7 @@
       </c>
       <c r="J30" s="2"/>
     </row>
-    <row r="31" spans="6:10" x14ac:dyDescent="0.45">
+    <row r="31" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F31">
         <v>94</v>
       </c>
@@ -934,7 +945,7 @@
       </c>
       <c r="J31" s="2"/>
     </row>
-    <row r="32" spans="6:10" x14ac:dyDescent="0.45">
+    <row r="32" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F32">
         <v>95</v>
       </c>
@@ -949,7 +960,7 @@
       </c>
       <c r="J32" s="2"/>
     </row>
-    <row r="33" spans="6:10" x14ac:dyDescent="0.45">
+    <row r="33" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F33">
         <v>96</v>
       </c>
@@ -964,7 +975,7 @@
       </c>
       <c r="J33" s="2"/>
     </row>
-    <row r="34" spans="6:10" x14ac:dyDescent="0.45">
+    <row r="34" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F34">
         <v>97</v>
       </c>
@@ -979,7 +990,7 @@
       </c>
       <c r="J34" s="2"/>
     </row>
-    <row r="35" spans="6:10" x14ac:dyDescent="0.45">
+    <row r="35" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F35">
         <v>98</v>
       </c>
@@ -994,7 +1005,7 @@
       </c>
       <c r="J35" s="2"/>
     </row>
-    <row r="36" spans="6:10" x14ac:dyDescent="0.45">
+    <row r="36" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F36">
         <v>99</v>
       </c>
@@ -1009,7 +1020,7 @@
       </c>
       <c r="J36" s="2"/>
     </row>
-    <row r="37" spans="6:10" x14ac:dyDescent="0.45">
+    <row r="37" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F37">
         <v>100</v>
       </c>
@@ -1024,7 +1035,7 @@
       </c>
       <c r="J37" s="2"/>
     </row>
-    <row r="38" spans="6:10" x14ac:dyDescent="0.45">
+    <row r="38" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F38">
         <v>101</v>
       </c>
@@ -1039,7 +1050,7 @@
       </c>
       <c r="J38" s="2"/>
     </row>
-    <row r="39" spans="6:10" x14ac:dyDescent="0.45">
+    <row r="39" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F39">
         <v>102</v>
       </c>
@@ -1054,7 +1065,7 @@
       </c>
       <c r="J39" s="2"/>
     </row>
-    <row r="40" spans="6:10" x14ac:dyDescent="0.45">
+    <row r="40" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F40">
         <v>103</v>
       </c>
@@ -1069,7 +1080,7 @@
       </c>
       <c r="J40" s="2"/>
     </row>
-    <row r="41" spans="6:10" x14ac:dyDescent="0.45">
+    <row r="41" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F41">
         <v>104</v>
       </c>
@@ -1084,7 +1095,7 @@
       </c>
       <c r="J41" s="2"/>
     </row>
-    <row r="42" spans="6:10" x14ac:dyDescent="0.45">
+    <row r="42" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F42">
         <v>105</v>
       </c>
@@ -1099,7 +1110,7 @@
       </c>
       <c r="J42" s="2"/>
     </row>
-    <row r="43" spans="6:10" x14ac:dyDescent="0.45">
+    <row r="43" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F43">
         <v>106</v>
       </c>
@@ -1114,7 +1125,7 @@
       </c>
       <c r="J43" s="2"/>
     </row>
-    <row r="44" spans="6:10" x14ac:dyDescent="0.45">
+    <row r="44" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F44">
         <v>107</v>
       </c>
@@ -1129,7 +1140,7 @@
       </c>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="6:10" x14ac:dyDescent="0.45">
+    <row r="45" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F45">
         <v>108</v>
       </c>
@@ -1144,7 +1155,7 @@
       </c>
       <c r="J45" s="2"/>
     </row>
-    <row r="46" spans="6:10" x14ac:dyDescent="0.45">
+    <row r="46" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F46">
         <v>109</v>
       </c>
@@ -1159,7 +1170,7 @@
       </c>
       <c r="J46" s="2"/>
     </row>
-    <row r="47" spans="6:10" x14ac:dyDescent="0.45">
+    <row r="47" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F47">
         <v>110</v>
       </c>
@@ -1174,7 +1185,7 @@
       </c>
       <c r="J47" s="2"/>
     </row>
-    <row r="48" spans="6:10" x14ac:dyDescent="0.45">
+    <row r="48" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F48">
         <v>111</v>
       </c>
@@ -1189,7 +1200,7 @@
       </c>
       <c r="J48" s="2"/>
     </row>
-    <row r="49" spans="6:10" x14ac:dyDescent="0.45">
+    <row r="49" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F49">
         <v>112</v>
       </c>
@@ -1204,7 +1215,7 @@
       </c>
       <c r="J49" s="2"/>
     </row>
-    <row r="50" spans="6:10" x14ac:dyDescent="0.45">
+    <row r="50" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F50">
         <v>113</v>
       </c>
@@ -1219,7 +1230,7 @@
       </c>
       <c r="J50" s="2"/>
     </row>
-    <row r="51" spans="6:10" x14ac:dyDescent="0.45">
+    <row r="51" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F51">
         <v>114</v>
       </c>
@@ -1234,7 +1245,7 @@
       </c>
       <c r="J51" s="2"/>
     </row>
-    <row r="52" spans="6:10" x14ac:dyDescent="0.45">
+    <row r="52" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F52">
         <v>115</v>
       </c>
@@ -1249,7 +1260,7 @@
       </c>
       <c r="J52" s="2"/>
     </row>
-    <row r="53" spans="6:10" x14ac:dyDescent="0.45">
+    <row r="53" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F53">
         <v>116</v>
       </c>
@@ -1264,7 +1275,7 @@
       </c>
       <c r="J53" s="2"/>
     </row>
-    <row r="54" spans="6:10" x14ac:dyDescent="0.45">
+    <row r="54" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F54">
         <v>117</v>
       </c>
@@ -1279,7 +1290,7 @@
       </c>
       <c r="J54" s="2"/>
     </row>
-    <row r="55" spans="6:10" x14ac:dyDescent="0.45">
+    <row r="55" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F55">
         <v>118</v>
       </c>
@@ -1294,7 +1305,7 @@
       </c>
       <c r="J55" s="2"/>
     </row>
-    <row r="56" spans="6:10" x14ac:dyDescent="0.45">
+    <row r="56" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F56">
         <v>119</v>
       </c>
@@ -1309,7 +1320,7 @@
       </c>
       <c r="J56" s="2"/>
     </row>
-    <row r="57" spans="6:10" x14ac:dyDescent="0.45">
+    <row r="57" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F57">
         <v>120</v>
       </c>
@@ -1324,7 +1335,7 @@
       </c>
       <c r="J57" s="2"/>
     </row>
-    <row r="58" spans="6:10" x14ac:dyDescent="0.45">
+    <row r="58" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F58">
         <v>121</v>
       </c>
@@ -1339,7 +1350,7 @@
       </c>
       <c r="J58" s="2"/>
     </row>
-    <row r="59" spans="6:10" x14ac:dyDescent="0.45">
+    <row r="59" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F59">
         <v>122</v>
       </c>
@@ -1354,7 +1365,7 @@
       </c>
       <c r="J59" s="2"/>
     </row>
-    <row r="60" spans="6:10" x14ac:dyDescent="0.45">
+    <row r="60" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F60">
         <v>123</v>
       </c>
@@ -1369,7 +1380,7 @@
       </c>
       <c r="J60" s="2"/>
     </row>
-    <row r="61" spans="6:10" x14ac:dyDescent="0.45">
+    <row r="61" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F61">
         <v>124</v>
       </c>
@@ -1384,7 +1395,7 @@
       </c>
       <c r="J61" s="2"/>
     </row>
-    <row r="62" spans="6:10" x14ac:dyDescent="0.45">
+    <row r="62" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F62">
         <v>125</v>
       </c>
@@ -1399,7 +1410,7 @@
       </c>
       <c r="J62" s="2"/>
     </row>
-    <row r="63" spans="6:10" x14ac:dyDescent="0.45">
+    <row r="63" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F63">
         <v>126</v>
       </c>
@@ -1414,7 +1425,7 @@
       </c>
       <c r="J63" s="2"/>
     </row>
-    <row r="64" spans="6:10" x14ac:dyDescent="0.45">
+    <row r="64" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F64">
         <v>127</v>
       </c>
@@ -1429,7 +1440,7 @@
       </c>
       <c r="J64" s="2"/>
     </row>
-    <row r="65" spans="6:10" x14ac:dyDescent="0.45">
+    <row r="65" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F65">
         <v>128</v>
       </c>
@@ -1444,7 +1455,7 @@
       </c>
       <c r="J65" s="2"/>
     </row>
-    <row r="66" spans="6:10" x14ac:dyDescent="0.45">
+    <row r="66" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F66">
         <v>129</v>
       </c>
@@ -1459,7 +1470,7 @@
       </c>
       <c r="J66" s="2"/>
     </row>
-    <row r="67" spans="6:10" x14ac:dyDescent="0.45">
+    <row r="67" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F67">
         <v>130</v>
       </c>
@@ -1475,6 +1486,7 @@
       <c r="J67" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/final.xlsx
+++ b/final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Shen\Source\Repos\final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{558D4911-F900-47ED-B77B-6E8AB6B28CAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD7D1949-8857-432D-823E-44DA16303E18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1095" yWindow="825" windowWidth="11520" windowHeight="7890" xr2:uid="{59ABE93D-F590-4F15-A965-72CEF18EA92E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{59ABE93D-F590-4F15-A965-72CEF18EA92E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -182,6 +182,1816 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Vol surface</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>black implied</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$7:$F$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="61"/>
+                <c:pt idx="0">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>130</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$7:$I$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="61"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F387-4E49-AAA9-183BFFE90C95}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>gamma implied</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$7:$F$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="61"/>
+                <c:pt idx="0">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>130</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$7:$J$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="61"/>
+                <c:pt idx="0">
+                  <c:v>0.21231052715334578</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.21183817179416867</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21137234937840421</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.21091288331598537</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.21045960410593448</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.21001234896104137</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.20957096145645532</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.20913529120173258</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.20870519353355413</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.20828052922744211</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.20786116422816761</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.20744696939560114</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.20703782026762049</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.20663359683496854</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.20623418333211044</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.20583946803790867</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.20544934308943413</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.20506370430575391</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.20468245102133648</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.20430548593030609</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.20393271493704457</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.20356404701673117</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.20319939408279358</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.20283867086138452</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.20248179477256115</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.20212868581788687</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.20177926647365566</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.20143346158876071</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.20109119829026401</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.20075240589094284</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.20041701580256077</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.20008496145309618</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.19975617820979266</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.19943060330278106</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.19910817575424916</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.19878883631142852</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.19847252738148907</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.19815919297022394</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.19784877862311953</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.19754123136892979</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.19723649966720683</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.19693453335599928</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.19663528360386642</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.19633870286258381</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.1960447448226682</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.19575336437070706</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.19546451754846336</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.19517816151349443</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.19489425450188741</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.1946127557918918</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.19433362566998369</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.19405682539738733</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.19378231717859215</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.19351006413067628</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.19324003025443812</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.19297218040625874</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.19270648027075188</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.19244289633549364</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.19218139586568742</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.19192194688040323</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.19166451812980059</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F387-4E49-AAA9-183BFFE90C95}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="237991856"/>
+        <c:axId val="227847424"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="237991856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="60"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Strike</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="227847424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="227847424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Implied Vol</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="237991856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53D70446-9FE4-4711-AAC6-CCD40878DE16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -484,7 +2294,7 @@
   <dimension ref="B2:J67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -567,12 +2377,18 @@
         <f t="array" ref="G7">_xll.XLL.BLACK.PUT(f, sigma, F7, t)</f>
         <v>3.7401735689890359E-4</v>
       </c>
-      <c r="H7" s="2"/>
+      <c r="H7" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F7, t)</f>
+        <v>8.9763951445043927E-4</v>
+      </c>
       <c r="I7" cm="1">
         <f t="array" ref="I7">_xll.XLL.BLACK.PUT.IMPLIED(f, G7, F7, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J7" s="2"/>
+      <c r="J7" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H7, F7, t)</f>
+        <v>0.21231052715334578</v>
+      </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
@@ -593,12 +2409,18 @@
         <f t="array" ref="G8">_xll.XLL.BLACK.PUT(f, sigma, F8, t)</f>
         <v>6.6190274539823513E-4</v>
       </c>
-      <c r="H8" s="2"/>
+      <c r="H8" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F8, t)</f>
+        <v>1.4575439098829177E-3</v>
+      </c>
       <c r="I8" cm="1">
         <f t="array" ref="I8">_xll.XLL.BLACK.PUT.IMPLIED(f, G8, F8, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J8" s="2"/>
+      <c r="J8" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H8, F8, t)</f>
+        <v>0.21183817179416867</v>
+      </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="F9">
@@ -608,12 +2430,18 @@
         <f t="array" ref="G9">_xll.XLL.BLACK.PUT(f, sigma, F9, t)</f>
         <v>1.1416834541484455E-3</v>
       </c>
-      <c r="H9" s="2"/>
+      <c r="H9" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F9, t)</f>
+        <v>2.3228003245620993E-3</v>
+      </c>
       <c r="I9" cm="1">
         <f t="array" ref="I9">_xll.XLL.BLACK.PUT.IMPLIED(f, G9, F9, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J9" s="2"/>
+      <c r="J9" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H9, F9, t)</f>
+        <v>0.21137234937840421</v>
+      </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="F10">
@@ -623,12 +2451,18 @@
         <f t="array" ref="G10">_xll.XLL.BLACK.PUT(f, sigma, F10, t)</f>
         <v>1.921340827967688E-3</v>
       </c>
-      <c r="H10" s="2"/>
+      <c r="H10" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F10, t)</f>
+        <v>3.6352252638087446E-3</v>
+      </c>
       <c r="I10" cm="1">
         <f t="array" ref="I10">_xll.XLL.BLACK.PUT.IMPLIED(f, G10, F10, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J10" s="2"/>
+      <c r="J10" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H10, F10, t)</f>
+        <v>0.21091288331598537</v>
+      </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="F11">
@@ -638,12 +2472,18 @@
         <f t="array" ref="G11">_xll.XLL.BLACK.PUT(f, sigma, F11, t)</f>
         <v>3.1579703105526491E-3</v>
       </c>
-      <c r="H11" s="2"/>
+      <c r="H11" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F11, t)</f>
+        <v>5.590231529384676E-3</v>
+      </c>
       <c r="I11" cm="1">
         <f t="array" ref="I11">_xll.XLL.BLACK.PUT.IMPLIED(f, G11, F11, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J11" s="2"/>
+      <c r="J11" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H11, F11, t)</f>
+        <v>0.21045960410593448</v>
+      </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="F12">
@@ -653,12 +2493,18 @@
         <f t="array" ref="G12">_xll.XLL.BLACK.PUT(f, sigma, F12, t)</f>
         <v>5.0742901084088743E-3</v>
       </c>
-      <c r="H12" s="2"/>
+      <c r="H12" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F12, t)</f>
+        <v>8.451791248063445E-3</v>
+      </c>
       <c r="I12" cm="1">
         <f t="array" ref="I12">_xll.XLL.BLACK.PUT.IMPLIED(f, G12, F12, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J12" s="2"/>
+      <c r="J12" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H12, F12, t)</f>
+        <v>0.21001234896104137</v>
+      </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="F13">
@@ -668,12 +2514,18 @@
         <f t="array" ref="G13">_xll.XLL.BLACK.PUT(f, sigma, F13, t)</f>
         <v>7.978238008985894E-3</v>
       </c>
-      <c r="H13" s="2"/>
+      <c r="H13" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F13, t)</f>
+        <v>1.2569613235804633E-2</v>
+      </c>
       <c r="I13" cm="1">
         <f t="array" ref="I13">_xll.XLL.BLACK.PUT.IMPLIED(f, G13, F13, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J13" s="2"/>
+      <c r="J13" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H13, F13, t)</f>
+        <v>0.20957096145645532</v>
+      </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="F14">
@@ -683,12 +2535,18 @@
         <f t="array" ref="G14">_xll.XLL.BLACK.PUT(f, sigma, F14, t)</f>
         <v>1.228534023985528E-2</v>
       </c>
-      <c r="H14" s="2"/>
+      <c r="H14" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F14, t)</f>
+        <v>1.8398212800229241E-2</v>
+      </c>
       <c r="I14" cm="1">
         <f t="array" ref="I14">_xll.XLL.BLACK.PUT.IMPLIED(f, G14, F14, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J14" s="2"/>
+      <c r="J14" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H14, F14, t)</f>
+        <v>0.20913529120173258</v>
+      </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="F15">
@@ -698,12 +2556,18 @@
         <f t="array" ref="G15">_xll.XLL.BLACK.PUT(f, sigma, F15, t)</f>
         <v>1.8543180097092993E-2</v>
       </c>
-      <c r="H15" s="2"/>
+      <c r="H15" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F15, t)</f>
+        <v>2.6517310308358133E-2</v>
+      </c>
       <c r="I15" cm="1">
         <f t="array" ref="I15">_xll.XLL.BLACK.PUT.IMPLIED(f, G15, F15, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J15" s="2"/>
+      <c r="J15" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H15, F15, t)</f>
+        <v>0.20870519353355413</v>
+      </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="F16">
@@ -713,12 +2577,18 @@
         <f t="array" ref="G16">_xll.XLL.BLACK.PUT(f, sigma, F16, t)</f>
         <v>2.7456906561138417E-2</v>
       </c>
-      <c r="H16" s="2"/>
+      <c r="H16" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F16, t)</f>
+        <v>3.7652736229766726E-2</v>
+      </c>
       <c r="I16" cm="1">
         <f t="array" ref="I16">_xll.XLL.BLACK.PUT.IMPLIED(f, G16, F16, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J16" s="2"/>
+      <c r="J16" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H16, F16, t)</f>
+        <v>0.20828052922744211</v>
+      </c>
     </row>
     <row r="17" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F17">
@@ -728,12 +2598,18 @@
         <f t="array" ref="G17">_xll.XLL.BLACK.PUT(f, sigma, F17, t)</f>
         <v>3.991434342184963E-2</v>
       </c>
-      <c r="H17" s="2"/>
+      <c r="H17" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F17, t)</f>
+        <v>5.2696767052352822E-2</v>
+      </c>
       <c r="I17" cm="1">
         <f t="array" ref="I17">_xll.XLL.BLACK.PUT.IMPLIED(f, G17, F17, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J17" s="2"/>
+      <c r="J17" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H17, F17, t)</f>
+        <v>0.20786116422816761</v>
+      </c>
     </row>
     <row r="18" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F18">
@@ -743,12 +2619,18 @@
         <f t="array" ref="G18">_xll.XLL.BLACK.PUT(f, sigma, F18, t)</f>
         <v>5.7008934088089269E-2</v>
       </c>
-      <c r="H18" s="2"/>
+      <c r="H18" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F18, t)</f>
+        <v>7.2726594958209656E-2</v>
+      </c>
       <c r="I18" cm="1">
         <f t="array" ref="I18">_xll.XLL.BLACK.PUT.IMPLIED(f, G18, F18, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J18" s="2"/>
+      <c r="J18" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H18, F18, t)</f>
+        <v>0.20744696939560114</v>
+      </c>
     </row>
     <row r="19" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F19">
@@ -758,12 +2640,18 @@
         <f t="array" ref="G19">_xll.XLL.BLACK.PUT(f, sigma, F19, t)</f>
         <v>8.0058534547871929E-2</v>
       </c>
-      <c r="H19" s="2"/>
+      <c r="H19" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F19, t)</f>
+        <v>9.9019472852507118E-2</v>
+      </c>
       <c r="I19" cm="1">
         <f t="array" ref="I19">_xll.XLL.BLACK.PUT.IMPLIED(f, G19, F19, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J19" s="2"/>
+      <c r="J19" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H19, F19, t)</f>
+        <v>0.20703782026762049</v>
+      </c>
     </row>
     <row r="20" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F20">
@@ -773,12 +2661,18 @@
         <f t="array" ref="G20">_xll.XLL.BLACK.PUT(f, sigma, F20, t)</f>
         <v>0.1106179901946911</v>
       </c>
-      <c r="H20" s="2"/>
+      <c r="H20" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F20, t)</f>
+        <v>0.13306300235605129</v>
+      </c>
       <c r="I20" cm="1">
         <f t="array" ref="I20">_xll.XLL.BLACK.PUT.IMPLIED(f, G20, F20, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J20" s="2"/>
+      <c r="J20" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H20, F20, t)</f>
+        <v>0.20663359683496854</v>
+      </c>
     </row>
     <row r="21" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F21">
@@ -788,12 +2682,18 @@
         <f t="array" ref="G21">_xll.XLL.BLACK.PUT(f, sigma, F21, t)</f>
         <v>0.15048353300942807</v>
       </c>
-      <c r="H21" s="2"/>
+      <c r="H21" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F21, t)</f>
+        <v>0.17655906810759392</v>
+      </c>
       <c r="I21" cm="1">
         <f t="array" ref="I21">_xll.XLL.BLACK.PUT.IMPLIED(f, G21, F21, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J21" s="2"/>
+      <c r="J21" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H21, F21, t)</f>
+        <v>0.20623418333211044</v>
+      </c>
     </row>
     <row r="22" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F22">
@@ -803,12 +2703,18 @@
         <f t="array" ref="G22">_xll.XLL.BLACK.PUT(f, sigma, F22, t)</f>
         <v>0.20168732797265232</v>
       </c>
-      <c r="H22" s="2"/>
+      <c r="H22" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F22, t)</f>
+        <v>0.23142008133591663</v>
+      </c>
       <c r="I22" cm="1">
         <f t="array" ref="I22">_xll.XLL.BLACK.PUT.IMPLIED(f, G22, F22, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J22" s="2"/>
+      <c r="J22" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H22, F22, t)</f>
+        <v>0.20583946803790867</v>
+      </c>
     </row>
     <row r="23" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F23">
@@ -818,12 +2724,18 @@
         <f t="array" ref="G23">_xll.XLL.BLACK.PUT(f, sigma, F23, t)</f>
         <v>0.266480974586214</v>
       </c>
-      <c r="H23" s="2"/>
+      <c r="H23" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F23, t)</f>
+        <v>0.2997564826258321</v>
+      </c>
       <c r="I23" cm="1">
         <f t="array" ref="I23">_xll.XLL.BLACK.PUT.IMPLIED(f, G23, F23, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J23" s="2"/>
+      <c r="J23" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H23, F23, t)</f>
+        <v>0.20544934308943413</v>
+      </c>
     </row>
     <row r="24" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F24">
@@ -833,12 +2745,18 @@
         <f t="array" ref="G24">_xll.XLL.BLACK.PUT(f, sigma, F24, t)</f>
         <v>0.34730740212793254</v>
       </c>
-      <c r="H24" s="2"/>
+      <c r="H24" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F24, t)</f>
+        <v>0.38385485890439863</v>
+      </c>
       <c r="I24" cm="1">
         <f t="array" ref="I24">_xll.XLL.BLACK.PUT.IMPLIED(f, G24, F24, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J24" s="2"/>
+      <c r="J24" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H24, F24, t)</f>
+        <v>0.20506370430575391</v>
+      </c>
     </row>
     <row r="25" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F25">
@@ -848,12 +2766,18 @@
         <f t="array" ref="G25">_xll.XLL.BLACK.PUT(f, sigma, F25, t)</f>
         <v>0.44676133725329947</v>
       </c>
-      <c r="H25" s="2"/>
+      <c r="H25" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F25, t)</f>
+        <v>0.48614653111121164</v>
+      </c>
       <c r="I25" cm="1">
         <f t="array" ref="I25">_xll.XLL.BLACK.PUT.IMPLIED(f, G25, F25, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J25" s="2"/>
+      <c r="J25" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H25, F25, t)</f>
+        <v>0.20468245102133648</v>
+      </c>
     </row>
     <row r="26" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F26">
@@ -863,12 +2787,18 @@
         <f t="array" ref="G26">_xll.XLL.BLACK.PUT(f, sigma, F26, t)</f>
         <v>0.56753930674006803</v>
       </c>
-      <c r="H26" s="2"/>
+      <c r="H26" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F26, t)</f>
+        <v>0.60916703344991596</v>
+      </c>
       <c r="I26" cm="1">
         <f t="array" ref="I26">_xll.XLL.BLACK.PUT.IMPLIED(f, G26, F26, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J26" s="2"/>
+      <c r="J26" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H26, F26, t)</f>
+        <v>0.20430548593030609</v>
+      </c>
     </row>
     <row r="27" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F27">
@@ -878,12 +2808,18 @@
         <f t="array" ref="G27">_xll.XLL.BLACK.PUT(f, sigma, F27, t)</f>
         <v>0.71238089607367172</v>
       </c>
-      <c r="H27" s="2"/>
+      <c r="H27" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F27, t)</f>
+        <v>0.75550749047170562</v>
+      </c>
       <c r="I27" cm="1">
         <f t="array" ref="I27">_xll.XLL.BLACK.PUT.IMPLIED(f, G27, F27, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J27" s="2"/>
+      <c r="J27" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H27, F27, t)</f>
+        <v>0.20393271493704457</v>
+      </c>
     </row>
     <row r="28" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F28">
@@ -893,12 +2829,18 @@
         <f t="array" ref="G28">_xll.XLL.BLACK.PUT(f, sigma, F28, t)</f>
         <v>0.88400364647703356</v>
       </c>
-      <c r="H28" s="2"/>
+      <c r="H28" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F28, t)</f>
+        <v>0.92775945788765313</v>
+      </c>
       <c r="I28" cm="1">
         <f t="array" ref="I28">_xll.XLL.BLACK.PUT.IMPLIED(f, G28, F28, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J28" s="2"/>
+      <c r="J28" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H28, F28, t)</f>
+        <v>0.20356404701673117</v>
+      </c>
     </row>
     <row r="29" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F29">
@@ -908,12 +2850,18 @@
         <f t="array" ref="G29">_xll.XLL.BLACK.PUT(f, sigma, F29, t)</f>
         <v>1.0850344779622993</v>
       </c>
-      <c r="H29" s="2"/>
+      <c r="H29" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F29, t)</f>
+        <v>1.1284552798969685</v>
+      </c>
       <c r="I29" cm="1">
         <f t="array" ref="I29">_xll.XLL.BLACK.PUT.IMPLIED(f, G29, F29, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J29" s="2"/>
+      <c r="J29" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H29, F29, t)</f>
+        <v>0.20319939408279358</v>
+      </c>
     </row>
     <row r="30" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F30">
@@ -923,12 +2871,18 @@
         <f t="array" ref="G30">_xll.XLL.BLACK.PUT(f, sigma, F30, t)</f>
         <v>1.3179408286409853</v>
       </c>
-      <c r="H30" s="2"/>
+      <c r="H30" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F30, t)</f>
+        <v>1.360006387955174</v>
+      </c>
       <c r="I30" cm="1">
         <f t="array" ref="I30">_xll.XLL.BLACK.PUT.IMPLIED(f, G30, F30, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J30" s="2"/>
+      <c r="J30" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H30, F30, t)</f>
+        <v>0.20283867086138452</v>
+      </c>
     </row>
     <row r="31" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F31">
@@ -938,12 +2892,18 @@
         <f t="array" ref="G31">_xll.XLL.BLACK.PUT(f, sigma, F31, t)</f>
         <v>1.584964775689393</v>
       </c>
-      <c r="H31" s="2"/>
+      <c r="H31" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F31, t)</f>
+        <v>1.62464219013426</v>
+      </c>
       <c r="I31" cm="1">
         <f t="array" ref="I31">_xll.XLL.BLACK.PUT.IMPLIED(f, G31, F31, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J31" s="2"/>
+      <c r="J31" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H31, F31, t)</f>
+        <v>0.20248179477256115</v>
+      </c>
     </row>
     <row r="32" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F32">
@@ -953,12 +2913,18 @@
         <f t="array" ref="G32">_xll.XLL.BLACK.PUT(f, sigma, F32, t)</f>
         <v>1.8880632480607211</v>
       </c>
-      <c r="H32" s="2"/>
+      <c r="H32" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F32, t)</f>
+        <v>1.9243522559585848</v>
+      </c>
       <c r="I32" cm="1">
         <f t="array" ref="I32">_xll.XLL.BLACK.PUT.IMPLIED(f, G32, F32, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J32" s="2"/>
+      <c r="J32" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H32, F32, t)</f>
+        <v>0.20212868581788687</v>
+      </c>
     </row>
     <row r="33" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F33">
@@ -968,12 +2934,18 @@
         <f t="array" ref="G33">_xll.XLL.BLACK.PUT(f, sigma, F33, t)</f>
         <v>2.2288570738163216</v>
       </c>
-      <c r="H33" s="2"/>
+      <c r="H33" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F33, t)</f>
+        <v>2.2608343827001036</v>
+      </c>
       <c r="I33" cm="1">
         <f t="array" ref="I33">_xll.XLL.BLACK.PUT.IMPLIED(f, G33, F33, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J33" s="2"/>
+      <c r="J33" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H33, F33, t)</f>
+        <v>0.20177926647365566</v>
+      </c>
     </row>
     <row r="34" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F34">
@@ -983,12 +2955,18 @@
         <f t="array" ref="G34">_xll.XLL.BLACK.PUT(f, sigma, F34, t)</f>
         <v>2.6085910627585847</v>
       </c>
-      <c r="H34" s="2"/>
+      <c r="H34" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F34, t)</f>
+        <v>2.6354508444062361</v>
+      </c>
       <c r="I34" cm="1">
         <f t="array" ref="I34">_xll.XLL.BLACK.PUT.IMPLIED(f, G34, F34, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J34" s="2"/>
+      <c r="J34" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H34, F34, t)</f>
+        <v>0.20143346158876071</v>
+      </c>
     </row>
     <row r="35" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F35">
@@ -998,12 +2976,18 @@
         <f t="array" ref="G35">_xll.XLL.BLACK.PUT(f, sigma, F35, t)</f>
         <v>3.0281066582734937</v>
       </c>
-      <c r="H35" s="2"/>
+      <c r="H35" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F35, t)</f>
+        <v>3.0491946970869392</v>
+      </c>
       <c r="I35" cm="1">
         <f t="array" ref="I35">_xll.XLL.BLACK.PUT.IMPLIED(f, G35, F35, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J35" s="2"/>
+      <c r="J35" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H35, F35, t)</f>
+        <v>0.20109119829026401</v>
+      </c>
     </row>
     <row r="36" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F36">
@@ -1013,12 +2997,18 @@
         <f t="array" ref="G36">_xll.XLL.BLACK.PUT(f, sigma, F36, t)</f>
         <v>3.4878279587501879</v>
       </c>
-      <c r="H36" s="2"/>
+      <c r="H36" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F36, t)</f>
+        <v>3.5026674760476624</v>
+      </c>
       <c r="I36" cm="1">
         <f t="array" ref="I36">_xll.XLL.BLACK.PUT.IMPLIED(f, G36, F36, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J36" s="2"/>
+      <c r="J36" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H36, F36, t)</f>
+        <v>0.20075240589094284</v>
+      </c>
     </row>
     <row r="37" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F37">
@@ -1028,12 +3018,18 @@
         <f t="array" ref="G37">_xll.XLL.BLACK.PUT(f, sigma, F37, t)</f>
         <v>3.987761167674492</v>
       </c>
-      <c r="H37" s="2"/>
+      <c r="H37" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F37, t)</f>
+        <v>3.9960690164368557</v>
+      </c>
       <c r="I37" cm="1">
         <f t="array" ref="I37">_xll.XLL.BLACK.PUT.IMPLIED(f, G37, F37, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J37" s="2"/>
+      <c r="J37" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H37, F37, t)</f>
+        <v>0.20041701580256077</v>
+      </c>
     </row>
     <row r="38" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F38">
@@ -1043,12 +3039,18 @@
         <f t="array" ref="G38">_xll.XLL.BLACK.PUT(f, sigma, F38, t)</f>
         <v>4.5275068370385512</v>
       </c>
-      <c r="H38" s="2"/>
+      <c r="H38" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F38, t)</f>
+        <v>4.5291995002208836</v>
+      </c>
       <c r="I38" cm="1">
         <f t="array" ref="I38">_xll.XLL.BLACK.PUT.IMPLIED(f, G38, F38, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J38" s="2"/>
+      <c r="J38" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H38, F38, t)</f>
+        <v>0.20008496145309618</v>
+      </c>
     </row>
     <row r="39" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F39">
@@ -1058,12 +3060,18 @@
         <f t="array" ref="G39">_xll.XLL.BLACK.PUT(f, sigma, F39, t)</f>
         <v>5.1062836665495652</v>
       </c>
-      <c r="H39" s="2"/>
+      <c r="H39" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F39, t)</f>
+        <v>5.1014732268873928</v>
+      </c>
       <c r="I39" cm="1">
         <f t="array" ref="I39">_xll.XLL.BLACK.PUT.IMPLIED(f, G39, F39, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J39" s="2"/>
+      <c r="J39" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H39, F39, t)</f>
+        <v>0.19975617820979266</v>
+      </c>
     </row>
     <row r="40" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F40">
@@ -1073,12 +3081,18 @@
         <f t="array" ref="G40">_xll.XLL.BLACK.PUT(f, sigma, F40, t)</f>
         <v>5.7229621445706016</v>
       </c>
-      <c r="H40" s="2"/>
+      <c r="H40" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F40, t)</f>
+        <v>5.7119430607959316</v>
+      </c>
       <c r="I40" cm="1">
         <f t="array" ref="I40">_xll.XLL.BLACK.PUT.IMPLIED(f, G40, F40, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J40" s="2"/>
+      <c r="J40" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H40, F40, t)</f>
+        <v>0.19943060330278106</v>
+      </c>
     </row>
     <row r="41" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F41">
@@ -1088,12 +3102,18 @@
         <f t="array" ref="G41">_xll.XLL.BLACK.PUT(f, sigma, F41, t)</f>
         <v>6.3761059854440632</v>
       </c>
-      <c r="H41" s="2"/>
+      <c r="H41" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F41, t)</f>
+        <v>6.359334058132589</v>
+      </c>
       <c r="I41" cm="1">
         <f t="array" ref="I41">_xll.XLL.BLACK.PUT.IMPLIED(f, G41, F41, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J41" s="2"/>
+      <c r="J41" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H41, F41, t)</f>
+        <v>0.19910817575424916</v>
+      </c>
     </row>
     <row r="42" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F42">
@@ -1103,12 +3123,18 @@
         <f t="array" ref="G42">_xll.XLL.BLACK.PUT(f, sigma, F42, t)</f>
         <v>7.0640191378988533</v>
       </c>
-      <c r="H42" s="2"/>
+      <c r="H42" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F42, t)</f>
+        <v>7.0420844428201121</v>
+      </c>
       <c r="I42" cm="1">
         <f t="array" ref="I42">_xll.XLL.BLACK.PUT.IMPLIED(f, G42, F42, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J42" s="2"/>
+      <c r="J42" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H42, F42, t)</f>
+        <v>0.19878883631142852</v>
+      </c>
     </row>
     <row r="43" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F43">
@@ -1118,12 +3144,18 @@
         <f t="array" ref="G43">_xll.XLL.BLACK.PUT(f, sigma, F43, t)</f>
         <v>7.7847961044341929</v>
       </c>
-      <c r="H43" s="2"/>
+      <c r="H43" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F43, t)</f>
+        <v>7.7583918958759028</v>
+      </c>
       <c r="I43" cm="1">
         <f t="array" ref="I43">_xll.XLL.BLACK.PUT.IMPLIED(f, G43, F43, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J43" s="2"/>
+      <c r="J43" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H43, F43, t)</f>
+        <v>0.19847252738148907</v>
+      </c>
     </row>
     <row r="44" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F44">
@@ -1133,12 +3165,18 @@
         <f t="array" ref="G44">_xll.XLL.BLACK.PUT(f, sigma, F44, t)</f>
         <v>8.5363734057617648</v>
       </c>
-      <c r="H44" s="2"/>
+      <c r="H44" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F44, t)</f>
+        <v>8.5062630478467582</v>
+      </c>
       <c r="I44" cm="1">
         <f t="array" ref="I44">_xll.XLL.BLACK.PUT.IMPLIED(f, G44, F44, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J44" s="2"/>
+      <c r="J44" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H44, F44, t)</f>
+        <v>0.19815919297022394</v>
+      </c>
     </row>
     <row r="45" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F45">
@@ -1148,12 +3186,18 @@
         <f t="array" ref="G45">_xll.XLL.BLACK.PUT(f, sigma, F45, t)</f>
         <v>9.3165802243033653</v>
       </c>
-      <c r="H45" s="2"/>
+      <c r="H45" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F45, t)</f>
+        <v>9.2835641106318576</v>
+      </c>
       <c r="I45" cm="1">
         <f t="array" ref="I45">_xll.XLL.BLACK.PUT.IMPLIED(f, G45, F45, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J45" s="2"/>
+      <c r="J45" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H45, F45, t)</f>
+        <v>0.19784877862311953</v>
+      </c>
     </row>
     <row r="46" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F46">
@@ -1163,12 +3207,18 @@
         <f t="array" ref="G46">_xll.XLL.BLACK.PUT(f, sigma, F46, t)</f>
         <v>10.123186539019287</v>
       </c>
-      <c r="H46" s="2"/>
+      <c r="H46" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F46, t)</f>
+        <v>10.088070737440773</v>
+      </c>
       <c r="I46" cm="1">
         <f t="array" ref="I46">_xll.XLL.BLACK.PUT.IMPLIED(f, G46, F46, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J46" s="2"/>
+      <c r="J46" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H46, F46, t)</f>
+        <v>0.19754123136892979</v>
+      </c>
     </row>
     <row r="47" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F47">
@@ -1178,12 +3228,18 @@
         <f t="array" ref="G47">_xll.XLL.BLACK.PUT(f, sigma, F47, t)</f>
         <v>10.953947391857227</v>
       </c>
-      <c r="H47" s="2"/>
+      <c r="H47" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F47, t)</f>
+        <v>10.917515436164138</v>
+      </c>
       <c r="I47" cm="1">
         <f t="array" ref="I47">_xll.XLL.BLACK.PUT.IMPLIED(f, G47, F47, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J47" s="2"/>
+      <c r="J47" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H47, F47, t)</f>
+        <v>0.19723649966720683</v>
+      </c>
     </row>
     <row r="48" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F48">
@@ -1193,12 +3249,18 @@
         <f t="array" ref="G48">_xll.XLL.BLACK.PUT(f, sigma, F48, t)</f>
         <v>11.806642276452763</v>
       </c>
-      <c r="H48" s="2"/>
+      <c r="H48" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F48, t)</f>
+        <v>11.7696311573022</v>
+      </c>
       <c r="I48" cm="1">
         <f t="array" ref="I48">_xll.XLL.BLACK.PUT.IMPLIED(f, G48, F48, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J48" s="2"/>
+      <c r="J48" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H48, F48, t)</f>
+        <v>0.19693453335599928</v>
+      </c>
     </row>
     <row r="49" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F49">
@@ -1208,12 +3270,18 @@
         <f t="array" ref="G49">_xll.XLL.BLACK.PUT(f, sigma, F49, t)</f>
         <v>12.679108988059141</v>
       </c>
-      <c r="H49" s="2"/>
+      <c r="H49" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F49, t)</f>
+        <v>12.64219000763228</v>
+      </c>
       <c r="I49" cm="1">
         <f t="array" ref="I49">_xll.XLL.BLACK.PUT.IMPLIED(f, G49, F49, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J49" s="2"/>
+      <c r="J49" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H49, F49, t)</f>
+        <v>0.19663528360386642</v>
+      </c>
     </row>
     <row r="50" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F50">
@@ -1223,12 +3291,18 @@
         <f t="array" ref="G50">_xll.XLL.BLACK.PUT(f, sigma, F50, t)</f>
         <v>13.569271600088328</v>
       </c>
-      <c r="H50" s="2"/>
+      <c r="H50" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F50, t)</f>
+        <v>13.533036380390683</v>
+      </c>
       <c r="I50" cm="1">
         <f t="array" ref="I50">_xll.XLL.BLACK.PUT.IMPLIED(f, G50, F50, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J50" s="2"/>
+      <c r="J50" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H50, F50, t)</f>
+        <v>0.19633870286258381</v>
+      </c>
     </row>
     <row r="51" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F51">
@@ -1238,12 +3312,18 @@
         <f t="array" ref="G51">_xll.XLL.BLACK.PUT(f, sigma, F51, t)</f>
         <v>14.47516252219144</v>
       </c>
-      <c r="H51" s="2"/>
+      <c r="H51" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F51, t)</f>
+        <v>14.44011412103788</v>
+      </c>
       <c r="I51" cm="1">
         <f t="array" ref="I51">_xll.XLL.BLACK.PUT.IMPLIED(f, G51, F51, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J51" s="2"/>
+      <c r="J51" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H51, F51, t)</f>
+        <v>0.1960447448226682</v>
+      </c>
     </row>
     <row r="52" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F52">
@@ -1253,12 +3333,18 @@
         <f t="array" ref="G52">_xll.XLL.BLACK.PUT(f, sigma, F52, t)</f>
         <v>15.39493883771641</v>
       </c>
-      <c r="H52" s="2"/>
+      <c r="H52" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F52, t)</f>
+        <v>15.361487647106756</v>
+      </c>
       <c r="I52" cm="1">
         <f t="array" ref="I52">_xll.XLL.BLACK.PUT.IMPLIED(f, G52, F52, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J52" s="2"/>
+      <c r="J52" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H52, F52, t)</f>
+        <v>0.19575336437070706</v>
+      </c>
     </row>
     <row r="53" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F53">
@@ -1268,12 +3354,18 @@
         <f t="array" ref="G53">_xll.XLL.BLACK.PUT(f, sigma, F53, t)</f>
         <v>16.32689330971084</v>
       </c>
-      <c r="H53" s="2"/>
+      <c r="H53" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F53, t)</f>
+        <v>16.29535719875858</v>
+      </c>
       <c r="I53" cm="1">
         <f t="array" ref="I53">_xll.XLL.BLACK.PUT.IMPLIED(f, G53, F53, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J53" s="2"/>
+      <c r="J53" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H53, F53, t)</f>
+        <v>0.19546451754846336</v>
+      </c>
     </row>
     <row r="54" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F54">
@@ -1283,12 +3375,18 @@
         <f t="array" ref="G54">_xll.XLL.BLACK.PUT(f, sigma, F54, t)</f>
         <v>17.269460583629098</v>
       </c>
-      <c r="H54" s="2"/>
+      <c r="H54" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F54, t)</f>
+        <v>17.240068605568112</v>
+      </c>
       <c r="I54" cm="1">
         <f t="array" ref="I54">_xll.XLL.BLACK.PUT.IMPLIED(f, G54, F54, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J54" s="2"/>
+      <c r="J54" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H54, F54, t)</f>
+        <v>0.19517816151349443</v>
+      </c>
     </row>
     <row r="55" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F55">
@@ -1298,12 +3396,18 @@
         <f t="array" ref="G55">_xll.XLL.BLACK.PUT(f, sigma, F55, t)</f>
         <v>18.221219204170339</v>
       </c>
-      <c r="H55" s="2"/>
+      <c r="H55" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F55, t)</f>
+        <v>18.194118111378401</v>
+      </c>
       <c r="I55" cm="1">
         <f t="array" ref="I55">_xll.XLL.BLACK.PUT.IMPLIED(f, G55, F55, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J55" s="2"/>
+      <c r="J55" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H55, F55, t)</f>
+        <v>0.19489425450188741</v>
+      </c>
     </row>
     <row r="56" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F56">
@@ -1313,12 +3417,18 @@
         <f t="array" ref="G56">_xll.XLL.BLACK.PUT(f, sigma, F56, t)</f>
         <v>19.180890108309001</v>
       </c>
-      <c r="H56" s="2"/>
+      <c r="H56" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F56, t)</f>
+        <v>19.156152903317306</v>
+      </c>
       <c r="I56" cm="1">
         <f t="array" ref="I56">_xll.XLL.BLACK.PUT.IMPLIED(f, G56, F56, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J56" s="2"/>
+      <c r="J56" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H56, F56, t)</f>
+        <v>0.1946127557918918</v>
+      </c>
     </row>
     <row r="57" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F57">
@@ -1328,12 +3438,18 @@
         <f t="array" ref="G57">_xll.XLL.BLACK.PUT(f, sigma, F57, t)</f>
         <v>20.14733226325697</v>
       </c>
-      <c r="H57" s="2"/>
+      <c r="H57" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F57, t)</f>
+        <v>20.12496804698003</v>
+      </c>
       <c r="I57" cm="1">
         <f t="array" ref="I57">_xll.XLL.BLACK.PUT.IMPLIED(f, G57, F57, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J57" s="2"/>
+      <c r="J57" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H57, F57, t)</f>
+        <v>0.19433362566998369</v>
+      </c>
     </row>
     <row r="58" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F58">
@@ -1343,12 +3459,18 @@
         <f t="array" ref="G58">_xll.XLL.BLACK.PUT(f, sigma, F58, t)</f>
         <v>21.119536094302745</v>
       </c>
-      <c r="H58" s="2"/>
+      <c r="H58" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F58, t)</f>
+        <v>21.099500543233205</v>
+      </c>
       <c r="I58" cm="1">
         <f t="array" ref="I58">_xll.XLL.BLACK.PUT.IMPLIED(f, G58, F58, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J58" s="2"/>
+      <c r="J58" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H58, F58, t)</f>
+        <v>0.19405682539738733</v>
+      </c>
     </row>
     <row r="59" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F59">
@@ -1358,12 +3480,18 @@
         <f t="array" ref="G59">_xll.XLL.BLACK.PUT(f, sigma, F59, t)</f>
         <v>22.096615300806519</v>
       </c>
-      <c r="H59" s="2"/>
+      <c r="H59" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F59, t)</f>
+        <v>22.078821200533753</v>
+      </c>
       <c r="I59" cm="1">
         <f t="array" ref="I59">_xll.XLL.BLACK.PUT.IMPLIED(f, G59, F59, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J59" s="2"/>
+      <c r="J59" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H59, F59, t)</f>
+        <v>0.19378231717859215</v>
+      </c>
     </row>
     <row r="60" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F60">
@@ -1373,12 +3501,18 @@
         <f t="array" ref="G60">_xll.XLL.BLACK.PUT(f, sigma, F60, t)</f>
         <v>23.077797596311726</v>
       </c>
-      <c r="H60" s="2"/>
+      <c r="H60" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F60, t)</f>
+        <v>23.062124968007112</v>
+      </c>
       <c r="I60" cm="1">
         <f t="array" ref="I60">_xll.XLL.BLACK.PUT.IMPLIED(f, G60, F60, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J60" s="2"/>
+      <c r="J60" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H60, F60, t)</f>
+        <v>0.19351006413067628</v>
+      </c>
     </row>
     <row r="61" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F61">
@@ -1388,12 +3522,18 @@
         <f t="array" ref="G61">_xll.XLL.BLACK.PUT(f, sigma, F61, t)</f>
         <v>24.062414837222818</v>
       </c>
-      <c r="H61" s="2"/>
+      <c r="H61" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F61, t)</f>
+        <v>24.04872030681635</v>
+      </c>
       <c r="I61" cm="1">
         <f t="array" ref="I61">_xll.XLL.BLACK.PUT.IMPLIED(f, G61, F61, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J61" s="2"/>
+      <c r="J61" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H61, F61, t)</f>
+        <v>0.19324003025443812</v>
+      </c>
     </row>
     <row r="62" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F62">
@@ -1403,12 +3543,18 @@
         <f t="array" ref="G62">_xll.XLL.BLACK.PUT(f, sigma, F62, t)</f>
         <v>25.04989292927732</v>
       </c>
-      <c r="H62" s="2"/>
+      <c r="H62" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F62, t)</f>
+        <v>25.038018097943663</v>
+      </c>
       <c r="I62" cm="1">
         <f t="array" ref="I62">_xll.XLL.BLACK.PUT.IMPLIED(f, G62, F62, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J62" s="2"/>
+      <c r="J62" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H62, F62, t)</f>
+        <v>0.19297218040625874</v>
+      </c>
     </row>
     <row r="63" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F63">
@@ -1418,12 +3564,18 @@
         <f t="array" ref="G63">_xll.XLL.BLACK.PUT(f, sigma, F63, t)</f>
         <v>26.039741826510507</v>
       </c>
-      <c r="H63" s="2"/>
+      <c r="H63" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F63, t)</f>
+        <v>26.029520499927315</v>
+      </c>
       <c r="I63" cm="1">
         <f t="array" ref="I63">_xll.XLL.BLACK.PUT.IMPLIED(f, G63, F63, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J63" s="2"/>
+      <c r="J63" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H63, F63, t)</f>
+        <v>0.19270648027075188</v>
+      </c>
     </row>
     <row r="64" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F64">
@@ -1433,12 +3585,18 @@
         <f t="array" ref="G64">_xll.XLL.BLACK.PUT(f, sigma, F64, t)</f>
         <v>27.031545866893069</v>
       </c>
-      <c r="H64" s="2"/>
+      <c r="H64" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F64, t)</f>
+        <v>27.022810085691404</v>
+      </c>
       <c r="I64" cm="1">
         <f t="array" ref="I64">_xll.XLL.BLACK.PUT.IMPLIED(f, G64, F64, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J64" s="2"/>
+      <c r="J64" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H64, F64, t)</f>
+        <v>0.19244289633549364</v>
+      </c>
     </row>
     <row r="65" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F65">
@@ -1448,12 +3606,18 @@
         <f t="array" ref="G65">_xll.XLL.BLACK.PUT(f, sigma, F65, t)</f>
         <v>28.024954624625238</v>
       </c>
-      <c r="H65" s="2"/>
+      <c r="H65" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F65, t)</f>
+        <v>28.017539507525299</v>
+      </c>
       <c r="I65" cm="1">
         <f t="array" ref="I65">_xll.XLL.BLACK.PUT.IMPLIED(f, G65, F65, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J65" s="2"/>
+      <c r="J65" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H65, F65, t)</f>
+        <v>0.19218139586568742</v>
+      </c>
     </row>
     <row r="66" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F66">
@@ -1463,12 +3627,18 @@
         <f t="array" ref="G66">_xll.XLL.BLACK.PUT(f, sigma, F66, t)</f>
         <v>29.01967440261366</v>
       </c>
-      <c r="H66" s="2"/>
+      <c r="H66" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F66, t)</f>
+        <v>29.013421866483313</v>
+      </c>
       <c r="I66" cm="1">
         <f t="array" ref="I66">_xll.XLL.BLACK.PUT.IMPLIED(f, G66, F66, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J66" s="2"/>
+      <c r="J66" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H66, F66, t)</f>
+        <v>0.19192194688040323</v>
+      </c>
     </row>
     <row r="67" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F67">
@@ -1478,15 +3648,22 @@
         <f t="array" ref="G67">_xll.XLL.BLACK.PUT(f, sigma, F67, t)</f>
         <v>30.01546044060332</v>
       </c>
-      <c r="H67" s="2"/>
+      <c r="H67" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F67, t)</f>
+        <v>30.010221898820959</v>
+      </c>
       <c r="I67" cm="1">
         <f t="array" ref="I67">_xll.XLL.BLACK.PUT.IMPLIED(f, G67, F67, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J67" s="2"/>
+      <c r="J67" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H67, F67, t)</f>
+        <v>0.19166451812980059</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/final.xlsx
+++ b/final.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kal2222\source\repos\keithalewis\final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alext\source\repos\final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDECEC16-5D22-4C9F-9072-BB4EA1AA88DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3308" yWindow="3308" windowWidth="15390" windowHeight="9982" xr2:uid="{59ABE93D-F590-4F15-A965-72CEF18EA92E}"/>
+    <workbookView xWindow="3308" yWindow="3308" windowWidth="15390" windowHeight="9983"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
     <definedName name="sigma">Sheet1!$C$3</definedName>
     <definedName name="t">Sheet1!$C$5</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,14 +38,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -93,20 +92,27 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -162,8 +168,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Input" xfId="1" builtinId="20"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="输入" xfId="1" builtinId="20"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -474,17 +480,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ED1841A-FD92-4362-9698-89095B3322F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="3.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -492,7 +500,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -500,7 +508,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -508,7 +516,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -528,7 +536,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
       <c r="F6" s="3" t="s">
         <v>7</v>
       </c>
@@ -545,7 +553,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
       <c r="C7" t="s">
         <v>4</v>
       </c>
@@ -559,14 +567,20 @@
         <f t="array" ref="G7">_xll.XLL.BLACK.PUT(f, sigma, F7, t)</f>
         <v>3.7401735689890359E-4</v>
       </c>
-      <c r="H7" s="2"/>
+      <c r="H7" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F7,t)</f>
+        <v>8.9763951445043927E-4</v>
+      </c>
       <c r="I7" cm="1">
         <f t="array" ref="I7">_xll.XLL.BLACK.PUT.IMPLIED(f, G7, F7, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="J7" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H7,F7,t)</f>
+        <v>0.21231052715334578</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -574,7 +588,10 @@
         <f t="array" ref="C8">_xll.XLL.BLACK.PUT(f, sigma, k, t)</f>
         <v>3.987761167674492</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,k,t)</f>
+        <v>3.9960690164368557</v>
+      </c>
       <c r="F8">
         <v>71</v>
       </c>
@@ -582,14 +599,20 @@
         <f t="array" ref="G8">_xll.XLL.BLACK.PUT(f, sigma, F8, t)</f>
         <v>6.6190274539823513E-4</v>
       </c>
-      <c r="H8" s="2"/>
+      <c r="H8" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F8,t)</f>
+        <v>1.4575439098829177E-3</v>
+      </c>
       <c r="I8" cm="1">
         <f t="array" ref="I8">_xll.XLL.BLACK.PUT.IMPLIED(f, G8, F8, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="J8" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H8,F8,t)</f>
+        <v>0.21183817179416867</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
       <c r="F9">
         <v>72</v>
       </c>
@@ -597,14 +620,20 @@
         <f t="array" ref="G9">_xll.XLL.BLACK.PUT(f, sigma, F9, t)</f>
         <v>1.1416834541484455E-3</v>
       </c>
-      <c r="H9" s="2"/>
+      <c r="H9" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F9,t)</f>
+        <v>2.3228003245620993E-3</v>
+      </c>
       <c r="I9" cm="1">
         <f t="array" ref="I9">_xll.XLL.BLACK.PUT.IMPLIED(f, G9, F9, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="J9" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H9,F9,t)</f>
+        <v>0.21137234937840421</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
       <c r="F10">
         <v>73</v>
       </c>
@@ -612,14 +641,20 @@
         <f t="array" ref="G10">_xll.XLL.BLACK.PUT(f, sigma, F10, t)</f>
         <v>1.921340827967688E-3</v>
       </c>
-      <c r="H10" s="2"/>
+      <c r="H10" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F10,t)</f>
+        <v>3.6352252638087446E-3</v>
+      </c>
       <c r="I10" cm="1">
         <f t="array" ref="I10">_xll.XLL.BLACK.PUT.IMPLIED(f, G10, F10, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="J10" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H10,F10,t)</f>
+        <v>0.21091288331598537</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
       <c r="F11">
         <v>74</v>
       </c>
@@ -627,14 +662,20 @@
         <f t="array" ref="G11">_xll.XLL.BLACK.PUT(f, sigma, F11, t)</f>
         <v>3.1579703105526491E-3</v>
       </c>
-      <c r="H11" s="2"/>
+      <c r="H11" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F11,t)</f>
+        <v>5.590231529384676E-3</v>
+      </c>
       <c r="I11" cm="1">
         <f t="array" ref="I11">_xll.XLL.BLACK.PUT.IMPLIED(f, G11, F11, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="J11" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H11,F11,t)</f>
+        <v>0.21045960410593448</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
       <c r="F12">
         <v>75</v>
       </c>
@@ -642,14 +683,20 @@
         <f t="array" ref="G12">_xll.XLL.BLACK.PUT(f, sigma, F12, t)</f>
         <v>5.0742901084088743E-3</v>
       </c>
-      <c r="H12" s="2"/>
+      <c r="H12" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F12,t)</f>
+        <v>8.451791248063445E-3</v>
+      </c>
       <c r="I12" cm="1">
         <f t="array" ref="I12">_xll.XLL.BLACK.PUT.IMPLIED(f, G12, F12, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="J12" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H12,F12,t)</f>
+        <v>0.21001234896104137</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.4">
       <c r="F13">
         <v>76</v>
       </c>
@@ -657,14 +704,20 @@
         <f t="array" ref="G13">_xll.XLL.BLACK.PUT(f, sigma, F13, t)</f>
         <v>7.978238008985894E-3</v>
       </c>
-      <c r="H13" s="2"/>
+      <c r="H13" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F13,t)</f>
+        <v>1.2569613235804633E-2</v>
+      </c>
       <c r="I13" cm="1">
         <f t="array" ref="I13">_xll.XLL.BLACK.PUT.IMPLIED(f, G13, F13, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="J13" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H13,F13,t)</f>
+        <v>0.20957096145645532</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.4">
       <c r="F14">
         <v>77</v>
       </c>
@@ -672,14 +725,20 @@
         <f t="array" ref="G14">_xll.XLL.BLACK.PUT(f, sigma, F14, t)</f>
         <v>1.228534023985528E-2</v>
       </c>
-      <c r="H14" s="2"/>
+      <c r="H14" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F14,t)</f>
+        <v>1.8398212800229241E-2</v>
+      </c>
       <c r="I14" cm="1">
         <f t="array" ref="I14">_xll.XLL.BLACK.PUT.IMPLIED(f, G14, F14, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="J14" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H14,F14,t)</f>
+        <v>0.20913529120173258</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
       <c r="F15">
         <v>78</v>
       </c>
@@ -687,14 +746,20 @@
         <f t="array" ref="G15">_xll.XLL.BLACK.PUT(f, sigma, F15, t)</f>
         <v>1.8543180097092993E-2</v>
       </c>
-      <c r="H15" s="2"/>
+      <c r="H15" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F15,t)</f>
+        <v>2.6517310308358133E-2</v>
+      </c>
       <c r="I15" cm="1">
         <f t="array" ref="I15">_xll.XLL.BLACK.PUT.IMPLIED(f, G15, F15, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="J15" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H15,F15,t)</f>
+        <v>0.20870519353355413</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.4">
       <c r="F16">
         <v>79</v>
       </c>
@@ -702,14 +767,20 @@
         <f t="array" ref="G16">_xll.XLL.BLACK.PUT(f, sigma, F16, t)</f>
         <v>2.7456906561138417E-2</v>
       </c>
-      <c r="H16" s="2"/>
+      <c r="H16" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F16,t)</f>
+        <v>3.7652736229766726E-2</v>
+      </c>
       <c r="I16" cm="1">
         <f t="array" ref="I16">_xll.XLL.BLACK.PUT.IMPLIED(f, G16, F16, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J16" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H16,F16,t)</f>
+        <v>0.20828052922744211</v>
+      </c>
+    </row>
+    <row r="17" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F17">
         <v>80</v>
       </c>
@@ -717,14 +788,20 @@
         <f t="array" ref="G17">_xll.XLL.BLACK.PUT(f, sigma, F17, t)</f>
         <v>3.991434342184963E-2</v>
       </c>
-      <c r="H17" s="2"/>
+      <c r="H17" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F17,t)</f>
+        <v>5.2696767052352822E-2</v>
+      </c>
       <c r="I17" cm="1">
         <f t="array" ref="I17">_xll.XLL.BLACK.PUT.IMPLIED(f, G17, F17, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J17" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H17,F17,t)</f>
+        <v>0.20786116422816761</v>
+      </c>
+    </row>
+    <row r="18" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F18">
         <v>81</v>
       </c>
@@ -732,14 +809,20 @@
         <f t="array" ref="G18">_xll.XLL.BLACK.PUT(f, sigma, F18, t)</f>
         <v>5.7008934088089269E-2</v>
       </c>
-      <c r="H18" s="2"/>
+      <c r="H18" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F18,t)</f>
+        <v>7.2726594958209656E-2</v>
+      </c>
       <c r="I18" cm="1">
         <f t="array" ref="I18">_xll.XLL.BLACK.PUT.IMPLIED(f, G18, F18, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J18" s="2"/>
-    </row>
-    <row r="19" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J18" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H18,F18,t)</f>
+        <v>0.20744696939560114</v>
+      </c>
+    </row>
+    <row r="19" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F19">
         <v>82</v>
       </c>
@@ -747,14 +830,20 @@
         <f t="array" ref="G19">_xll.XLL.BLACK.PUT(f, sigma, F19, t)</f>
         <v>8.0058534547871929E-2</v>
       </c>
-      <c r="H19" s="2"/>
+      <c r="H19" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F19,t)</f>
+        <v>9.9019472852507118E-2</v>
+      </c>
       <c r="I19" cm="1">
         <f t="array" ref="I19">_xll.XLL.BLACK.PUT.IMPLIED(f, G19, F19, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J19" s="2"/>
-    </row>
-    <row r="20" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J19" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H19,F19,t)</f>
+        <v>0.20703782026762049</v>
+      </c>
+    </row>
+    <row r="20" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F20">
         <v>83</v>
       </c>
@@ -762,14 +851,20 @@
         <f t="array" ref="G20">_xll.XLL.BLACK.PUT(f, sigma, F20, t)</f>
         <v>0.1106179901946911</v>
       </c>
-      <c r="H20" s="2"/>
+      <c r="H20" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F20,t)</f>
+        <v>0.13306300235605129</v>
+      </c>
       <c r="I20" cm="1">
         <f t="array" ref="I20">_xll.XLL.BLACK.PUT.IMPLIED(f, G20, F20, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J20" s="2"/>
-    </row>
-    <row r="21" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J20" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H20,F20,t)</f>
+        <v>0.20663359683496854</v>
+      </c>
+    </row>
+    <row r="21" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F21">
         <v>84</v>
       </c>
@@ -777,14 +872,20 @@
         <f t="array" ref="G21">_xll.XLL.BLACK.PUT(f, sigma, F21, t)</f>
         <v>0.15048353300942807</v>
       </c>
-      <c r="H21" s="2"/>
+      <c r="H21" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F21,t)</f>
+        <v>0.17655906810759392</v>
+      </c>
       <c r="I21" cm="1">
         <f t="array" ref="I21">_xll.XLL.BLACK.PUT.IMPLIED(f, G21, F21, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J21" s="2"/>
-    </row>
-    <row r="22" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J21" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H21,F21,t)</f>
+        <v>0.20623418333211044</v>
+      </c>
+    </row>
+    <row r="22" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F22">
         <v>85</v>
       </c>
@@ -792,14 +893,20 @@
         <f t="array" ref="G22">_xll.XLL.BLACK.PUT(f, sigma, F22, t)</f>
         <v>0.20168732797265232</v>
       </c>
-      <c r="H22" s="2"/>
+      <c r="H22" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F22,t)</f>
+        <v>0.23142008133591663</v>
+      </c>
       <c r="I22" cm="1">
         <f t="array" ref="I22">_xll.XLL.BLACK.PUT.IMPLIED(f, G22, F22, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J22" s="2"/>
-    </row>
-    <row r="23" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J22" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H22,F22,t)</f>
+        <v>0.20583946803790867</v>
+      </c>
+    </row>
+    <row r="23" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F23">
         <v>86</v>
       </c>
@@ -807,14 +914,20 @@
         <f t="array" ref="G23">_xll.XLL.BLACK.PUT(f, sigma, F23, t)</f>
         <v>0.266480974586214</v>
       </c>
-      <c r="H23" s="2"/>
+      <c r="H23" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F23,t)</f>
+        <v>0.2997564826258321</v>
+      </c>
       <c r="I23" cm="1">
         <f t="array" ref="I23">_xll.XLL.BLACK.PUT.IMPLIED(f, G23, F23, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J23" s="2"/>
-    </row>
-    <row r="24" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J23" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H23,F23,t)</f>
+        <v>0.20544934308943413</v>
+      </c>
+    </row>
+    <row r="24" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F24">
         <v>87</v>
       </c>
@@ -822,14 +935,20 @@
         <f t="array" ref="G24">_xll.XLL.BLACK.PUT(f, sigma, F24, t)</f>
         <v>0.34730740212793254</v>
       </c>
-      <c r="H24" s="2"/>
+      <c r="H24" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F24,t)</f>
+        <v>0.38385485890439863</v>
+      </c>
       <c r="I24" cm="1">
         <f t="array" ref="I24">_xll.XLL.BLACK.PUT.IMPLIED(f, G24, F24, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J24" s="2"/>
-    </row>
-    <row r="25" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J24" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H24,F24,t)</f>
+        <v>0.20506370430575391</v>
+      </c>
+    </row>
+    <row r="25" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F25">
         <v>88</v>
       </c>
@@ -837,14 +956,20 @@
         <f t="array" ref="G25">_xll.XLL.BLACK.PUT(f, sigma, F25, t)</f>
         <v>0.44676133725329947</v>
       </c>
-      <c r="H25" s="2"/>
+      <c r="H25" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F25,t)</f>
+        <v>0.48614653111121164</v>
+      </c>
       <c r="I25" cm="1">
         <f t="array" ref="I25">_xll.XLL.BLACK.PUT.IMPLIED(f, G25, F25, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J25" s="2"/>
-    </row>
-    <row r="26" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J25" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H25,F25,t)</f>
+        <v>0.20468245102133648</v>
+      </c>
+    </row>
+    <row r="26" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F26">
         <v>89</v>
       </c>
@@ -852,14 +977,20 @@
         <f t="array" ref="G26">_xll.XLL.BLACK.PUT(f, sigma, F26, t)</f>
         <v>0.56753930674006803</v>
       </c>
-      <c r="H26" s="2"/>
+      <c r="H26" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F26,t)</f>
+        <v>0.60916703344991596</v>
+      </c>
       <c r="I26" cm="1">
         <f t="array" ref="I26">_xll.XLL.BLACK.PUT.IMPLIED(f, G26, F26, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J26" s="2"/>
-    </row>
-    <row r="27" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J26" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H26,F26,t)</f>
+        <v>0.20430548593030609</v>
+      </c>
+    </row>
+    <row r="27" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F27">
         <v>90</v>
       </c>
@@ -867,14 +998,20 @@
         <f t="array" ref="G27">_xll.XLL.BLACK.PUT(f, sigma, F27, t)</f>
         <v>0.71238089607367172</v>
       </c>
-      <c r="H27" s="2"/>
+      <c r="H27" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F27,t)</f>
+        <v>0.75550749047170562</v>
+      </c>
       <c r="I27" cm="1">
         <f t="array" ref="I27">_xll.XLL.BLACK.PUT.IMPLIED(f, G27, F27, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J27" s="2"/>
-    </row>
-    <row r="28" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J27" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H27,F27,t)</f>
+        <v>0.20393271493704457</v>
+      </c>
+    </row>
+    <row r="28" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F28">
         <v>91</v>
       </c>
@@ -882,14 +1019,20 @@
         <f t="array" ref="G28">_xll.XLL.BLACK.PUT(f, sigma, F28, t)</f>
         <v>0.88400364647703356</v>
       </c>
-      <c r="H28" s="2"/>
+      <c r="H28" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F28,t)</f>
+        <v>0.92775945788765313</v>
+      </c>
       <c r="I28" cm="1">
         <f t="array" ref="I28">_xll.XLL.BLACK.PUT.IMPLIED(f, G28, F28, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J28" s="2"/>
-    </row>
-    <row r="29" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J28" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H28,F28,t)</f>
+        <v>0.20356404701673117</v>
+      </c>
+    </row>
+    <row r="29" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F29">
         <v>92</v>
       </c>
@@ -897,14 +1040,20 @@
         <f t="array" ref="G29">_xll.XLL.BLACK.PUT(f, sigma, F29, t)</f>
         <v>1.0850344779622993</v>
       </c>
-      <c r="H29" s="2"/>
+      <c r="H29" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F29,t)</f>
+        <v>1.1284552798969685</v>
+      </c>
       <c r="I29" cm="1">
         <f t="array" ref="I29">_xll.XLL.BLACK.PUT.IMPLIED(f, G29, F29, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J29" s="2"/>
-    </row>
-    <row r="30" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J29" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H29,F29,t)</f>
+        <v>0.20319939408279358</v>
+      </c>
+    </row>
+    <row r="30" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F30">
         <v>93</v>
       </c>
@@ -912,14 +1061,20 @@
         <f t="array" ref="G30">_xll.XLL.BLACK.PUT(f, sigma, F30, t)</f>
         <v>1.3179408286409853</v>
       </c>
-      <c r="H30" s="2"/>
+      <c r="H30" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F30,t)</f>
+        <v>1.360006387955174</v>
+      </c>
       <c r="I30" cm="1">
         <f t="array" ref="I30">_xll.XLL.BLACK.PUT.IMPLIED(f, G30, F30, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J30" s="2"/>
-    </row>
-    <row r="31" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J30" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H30,F30,t)</f>
+        <v>0.20283867086138452</v>
+      </c>
+    </row>
+    <row r="31" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F31">
         <v>94</v>
       </c>
@@ -927,14 +1082,20 @@
         <f t="array" ref="G31">_xll.XLL.BLACK.PUT(f, sigma, F31, t)</f>
         <v>1.584964775689393</v>
       </c>
-      <c r="H31" s="2"/>
+      <c r="H31" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F31,t)</f>
+        <v>1.62464219013426</v>
+      </c>
       <c r="I31" cm="1">
         <f t="array" ref="I31">_xll.XLL.BLACK.PUT.IMPLIED(f, G31, F31, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J31" s="2"/>
-    </row>
-    <row r="32" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J31" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H31,F31,t)</f>
+        <v>0.20248179477256115</v>
+      </c>
+    </row>
+    <row r="32" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F32">
         <v>95</v>
       </c>
@@ -942,14 +1103,20 @@
         <f t="array" ref="G32">_xll.XLL.BLACK.PUT(f, sigma, F32, t)</f>
         <v>1.8880632480607211</v>
       </c>
-      <c r="H32" s="2"/>
+      <c r="H32" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F32,t)</f>
+        <v>1.9243522559585848</v>
+      </c>
       <c r="I32" cm="1">
         <f t="array" ref="I32">_xll.XLL.BLACK.PUT.IMPLIED(f, G32, F32, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J32" s="2"/>
-    </row>
-    <row r="33" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J32" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H32,F32,t)</f>
+        <v>0.20212868581788687</v>
+      </c>
+    </row>
+    <row r="33" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F33">
         <v>96</v>
       </c>
@@ -957,14 +1124,20 @@
         <f t="array" ref="G33">_xll.XLL.BLACK.PUT(f, sigma, F33, t)</f>
         <v>2.2288570738163216</v>
       </c>
-      <c r="H33" s="2"/>
+      <c r="H33" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F33,t)</f>
+        <v>2.2608343827001036</v>
+      </c>
       <c r="I33" cm="1">
         <f t="array" ref="I33">_xll.XLL.BLACK.PUT.IMPLIED(f, G33, F33, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J33" s="2"/>
-    </row>
-    <row r="34" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J33" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H33,F33,t)</f>
+        <v>0.20177926647365566</v>
+      </c>
+    </row>
+    <row r="34" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F34">
         <v>97</v>
       </c>
@@ -972,14 +1145,20 @@
         <f t="array" ref="G34">_xll.XLL.BLACK.PUT(f, sigma, F34, t)</f>
         <v>2.6085910627585847</v>
       </c>
-      <c r="H34" s="2"/>
+      <c r="H34" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F34,t)</f>
+        <v>2.6354508444062361</v>
+      </c>
       <c r="I34" cm="1">
         <f t="array" ref="I34">_xll.XLL.BLACK.PUT.IMPLIED(f, G34, F34, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J34" s="2"/>
-    </row>
-    <row r="35" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J34" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H34,F34,t)</f>
+        <v>0.20143346158876071</v>
+      </c>
+    </row>
+    <row r="35" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F35">
         <v>98</v>
       </c>
@@ -987,14 +1166,20 @@
         <f t="array" ref="G35">_xll.XLL.BLACK.PUT(f, sigma, F35, t)</f>
         <v>3.0281066582734937</v>
       </c>
-      <c r="H35" s="2"/>
+      <c r="H35" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F35,t)</f>
+        <v>3.0491946970869392</v>
+      </c>
       <c r="I35" cm="1">
         <f t="array" ref="I35">_xll.XLL.BLACK.PUT.IMPLIED(f, G35, F35, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J35" s="2"/>
-    </row>
-    <row r="36" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J35" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H35,F35,t)</f>
+        <v>0.20109119829026401</v>
+      </c>
+    </row>
+    <row r="36" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F36">
         <v>99</v>
       </c>
@@ -1002,14 +1187,20 @@
         <f t="array" ref="G36">_xll.XLL.BLACK.PUT(f, sigma, F36, t)</f>
         <v>3.4878279587501879</v>
       </c>
-      <c r="H36" s="2"/>
+      <c r="H36" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F36,t)</f>
+        <v>3.5026674760476624</v>
+      </c>
       <c r="I36" cm="1">
         <f t="array" ref="I36">_xll.XLL.BLACK.PUT.IMPLIED(f, G36, F36, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J36" s="2"/>
-    </row>
-    <row r="37" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J36" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H36,F36,t)</f>
+        <v>0.20075240589094284</v>
+      </c>
+    </row>
+    <row r="37" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F37">
         <v>100</v>
       </c>
@@ -1017,14 +1208,20 @@
         <f t="array" ref="G37">_xll.XLL.BLACK.PUT(f, sigma, F37, t)</f>
         <v>3.987761167674492</v>
       </c>
-      <c r="H37" s="2"/>
+      <c r="H37" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F37,t)</f>
+        <v>3.9960690164368557</v>
+      </c>
       <c r="I37" cm="1">
         <f t="array" ref="I37">_xll.XLL.BLACK.PUT.IMPLIED(f, G37, F37, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J37" s="2"/>
-    </row>
-    <row r="38" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J37" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H37,F37,t)</f>
+        <v>0.20041701580256077</v>
+      </c>
+    </row>
+    <row r="38" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F38">
         <v>101</v>
       </c>
@@ -1032,14 +1229,20 @@
         <f t="array" ref="G38">_xll.XLL.BLACK.PUT(f, sigma, F38, t)</f>
         <v>4.5275068370385512</v>
       </c>
-      <c r="H38" s="2"/>
+      <c r="H38" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F38,t)</f>
+        <v>4.5291995002208836</v>
+      </c>
       <c r="I38" cm="1">
         <f t="array" ref="I38">_xll.XLL.BLACK.PUT.IMPLIED(f, G38, F38, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J38" s="2"/>
-    </row>
-    <row r="39" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J38" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H38,F38,t)</f>
+        <v>0.20008496145309618</v>
+      </c>
+    </row>
+    <row r="39" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F39">
         <v>102</v>
       </c>
@@ -1047,14 +1250,20 @@
         <f t="array" ref="G39">_xll.XLL.BLACK.PUT(f, sigma, F39, t)</f>
         <v>5.1062836665495652</v>
       </c>
-      <c r="H39" s="2"/>
+      <c r="H39" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F39,t)</f>
+        <v>5.1014732268873928</v>
+      </c>
       <c r="I39" cm="1">
         <f t="array" ref="I39">_xll.XLL.BLACK.PUT.IMPLIED(f, G39, F39, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J39" s="2"/>
-    </row>
-    <row r="40" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J39" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H39,F39,t)</f>
+        <v>0.19975617820979266</v>
+      </c>
+    </row>
+    <row r="40" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F40">
         <v>103</v>
       </c>
@@ -1062,14 +1271,20 @@
         <f t="array" ref="G40">_xll.XLL.BLACK.PUT(f, sigma, F40, t)</f>
         <v>5.7229621445706016</v>
       </c>
-      <c r="H40" s="2"/>
+      <c r="H40" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F40,t)</f>
+        <v>5.7119430607959316</v>
+      </c>
       <c r="I40" cm="1">
         <f t="array" ref="I40">_xll.XLL.BLACK.PUT.IMPLIED(f, G40, F40, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J40" s="2"/>
-    </row>
-    <row r="41" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J40" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H40,F40,t)</f>
+        <v>0.19943060330278106</v>
+      </c>
+    </row>
+    <row r="41" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F41">
         <v>104</v>
       </c>
@@ -1077,14 +1292,20 @@
         <f t="array" ref="G41">_xll.XLL.BLACK.PUT(f, sigma, F41, t)</f>
         <v>6.3761059854440632</v>
       </c>
-      <c r="H41" s="2"/>
+      <c r="H41" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F41,t)</f>
+        <v>6.359334058132589</v>
+      </c>
       <c r="I41" cm="1">
         <f t="array" ref="I41">_xll.XLL.BLACK.PUT.IMPLIED(f, G41, F41, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J41" s="2"/>
-    </row>
-    <row r="42" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J41" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H41,F41,t)</f>
+        <v>0.19910817575424916</v>
+      </c>
+    </row>
+    <row r="42" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F42">
         <v>105</v>
       </c>
@@ -1092,14 +1313,20 @@
         <f t="array" ref="G42">_xll.XLL.BLACK.PUT(f, sigma, F42, t)</f>
         <v>7.0640191378988533</v>
       </c>
-      <c r="H42" s="2"/>
+      <c r="H42" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F42,t)</f>
+        <v>7.0420844428201121</v>
+      </c>
       <c r="I42" cm="1">
         <f t="array" ref="I42">_xll.XLL.BLACK.PUT.IMPLIED(f, G42, F42, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J42" s="2"/>
-    </row>
-    <row r="43" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J42" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H42,F42,t)</f>
+        <v>0.19878883631142852</v>
+      </c>
+    </row>
+    <row r="43" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F43">
         <v>106</v>
       </c>
@@ -1107,14 +1334,20 @@
         <f t="array" ref="G43">_xll.XLL.BLACK.PUT(f, sigma, F43, t)</f>
         <v>7.7847961044341929</v>
       </c>
-      <c r="H43" s="2"/>
+      <c r="H43" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F43,t)</f>
+        <v>7.7583918958759028</v>
+      </c>
       <c r="I43" cm="1">
         <f t="array" ref="I43">_xll.XLL.BLACK.PUT.IMPLIED(f, G43, F43, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J43" s="2"/>
-    </row>
-    <row r="44" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J43" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H43,F43,t)</f>
+        <v>0.19847252738148907</v>
+      </c>
+    </row>
+    <row r="44" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F44">
         <v>107</v>
       </c>
@@ -1122,14 +1355,20 @@
         <f t="array" ref="G44">_xll.XLL.BLACK.PUT(f, sigma, F44, t)</f>
         <v>8.5363734057617648</v>
       </c>
-      <c r="H44" s="2"/>
+      <c r="H44" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F44,t)</f>
+        <v>8.5062630478467582</v>
+      </c>
       <c r="I44" cm="1">
         <f t="array" ref="I44">_xll.XLL.BLACK.PUT.IMPLIED(f, G44, F44, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J44" s="2"/>
-    </row>
-    <row r="45" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J44" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H44,F44,t)</f>
+        <v>0.19815919297022394</v>
+      </c>
+    </row>
+    <row r="45" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F45">
         <v>108</v>
       </c>
@@ -1137,14 +1376,20 @@
         <f t="array" ref="G45">_xll.XLL.BLACK.PUT(f, sigma, F45, t)</f>
         <v>9.3165802243033653</v>
       </c>
-      <c r="H45" s="2"/>
+      <c r="H45" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F45,t)</f>
+        <v>9.2835641106318576</v>
+      </c>
       <c r="I45" cm="1">
         <f t="array" ref="I45">_xll.XLL.BLACK.PUT.IMPLIED(f, G45, F45, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J45" s="2"/>
-    </row>
-    <row r="46" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J45" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H45,F45,t)</f>
+        <v>0.19784877862311953</v>
+      </c>
+    </row>
+    <row r="46" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F46">
         <v>109</v>
       </c>
@@ -1152,14 +1397,20 @@
         <f t="array" ref="G46">_xll.XLL.BLACK.PUT(f, sigma, F46, t)</f>
         <v>10.123186539019287</v>
       </c>
-      <c r="H46" s="2"/>
+      <c r="H46" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F46,t)</f>
+        <v>10.088070737440773</v>
+      </c>
       <c r="I46" cm="1">
         <f t="array" ref="I46">_xll.XLL.BLACK.PUT.IMPLIED(f, G46, F46, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J46" s="2"/>
-    </row>
-    <row r="47" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J46" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H46,F46,t)</f>
+        <v>0.19754123136892979</v>
+      </c>
+    </row>
+    <row r="47" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F47">
         <v>110</v>
       </c>
@@ -1167,14 +1418,20 @@
         <f t="array" ref="G47">_xll.XLL.BLACK.PUT(f, sigma, F47, t)</f>
         <v>10.953947391857227</v>
       </c>
-      <c r="H47" s="2"/>
+      <c r="H47" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F47,t)</f>
+        <v>10.917515436164138</v>
+      </c>
       <c r="I47" cm="1">
         <f t="array" ref="I47">_xll.XLL.BLACK.PUT.IMPLIED(f, G47, F47, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J47" s="2"/>
-    </row>
-    <row r="48" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J47" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H47,F47,t)</f>
+        <v>0.19723649966720683</v>
+      </c>
+    </row>
+    <row r="48" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F48">
         <v>111</v>
       </c>
@@ -1182,14 +1439,20 @@
         <f t="array" ref="G48">_xll.XLL.BLACK.PUT(f, sigma, F48, t)</f>
         <v>11.806642276452763</v>
       </c>
-      <c r="H48" s="2"/>
+      <c r="H48" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F48,t)</f>
+        <v>11.7696311573022</v>
+      </c>
       <c r="I48" cm="1">
         <f t="array" ref="I48">_xll.XLL.BLACK.PUT.IMPLIED(f, G48, F48, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J48" s="2"/>
-    </row>
-    <row r="49" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J48" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H48,F48,t)</f>
+        <v>0.19693453335599928</v>
+      </c>
+    </row>
+    <row r="49" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F49">
         <v>112</v>
       </c>
@@ -1197,14 +1460,20 @@
         <f t="array" ref="G49">_xll.XLL.BLACK.PUT(f, sigma, F49, t)</f>
         <v>12.679108988059141</v>
       </c>
-      <c r="H49" s="2"/>
+      <c r="H49" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F49,t)</f>
+        <v>12.64219000763228</v>
+      </c>
       <c r="I49" cm="1">
         <f t="array" ref="I49">_xll.XLL.BLACK.PUT.IMPLIED(f, G49, F49, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J49" s="2"/>
-    </row>
-    <row r="50" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J49" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H49,F49,t)</f>
+        <v>0.19663528360386642</v>
+      </c>
+    </row>
+    <row r="50" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F50">
         <v>113</v>
       </c>
@@ -1212,14 +1481,20 @@
         <f t="array" ref="G50">_xll.XLL.BLACK.PUT(f, sigma, F50, t)</f>
         <v>13.569271600088328</v>
       </c>
-      <c r="H50" s="2"/>
+      <c r="H50" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F50,t)</f>
+        <v>13.533036380390683</v>
+      </c>
       <c r="I50" cm="1">
         <f t="array" ref="I50">_xll.XLL.BLACK.PUT.IMPLIED(f, G50, F50, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J50" s="2"/>
-    </row>
-    <row r="51" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J50" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H50,F50,t)</f>
+        <v>0.19633870286258381</v>
+      </c>
+    </row>
+    <row r="51" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F51">
         <v>114</v>
       </c>
@@ -1227,14 +1502,20 @@
         <f t="array" ref="G51">_xll.XLL.BLACK.PUT(f, sigma, F51, t)</f>
         <v>14.47516252219144</v>
       </c>
-      <c r="H51" s="2"/>
+      <c r="H51" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F51,t)</f>
+        <v>14.44011412103788</v>
+      </c>
       <c r="I51" cm="1">
         <f t="array" ref="I51">_xll.XLL.BLACK.PUT.IMPLIED(f, G51, F51, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J51" s="2"/>
-    </row>
-    <row r="52" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J51" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H51,F51,t)</f>
+        <v>0.1960447448226682</v>
+      </c>
+    </row>
+    <row r="52" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F52">
         <v>115</v>
       </c>
@@ -1242,14 +1523,20 @@
         <f t="array" ref="G52">_xll.XLL.BLACK.PUT(f, sigma, F52, t)</f>
         <v>15.39493883771641</v>
       </c>
-      <c r="H52" s="2"/>
+      <c r="H52" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F52,t)</f>
+        <v>15.361487647106756</v>
+      </c>
       <c r="I52" cm="1">
         <f t="array" ref="I52">_xll.XLL.BLACK.PUT.IMPLIED(f, G52, F52, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J52" s="2"/>
-    </row>
-    <row r="53" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J52" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H52,F52,t)</f>
+        <v>0.19575336437070706</v>
+      </c>
+    </row>
+    <row r="53" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F53">
         <v>116</v>
       </c>
@@ -1257,14 +1544,20 @@
         <f t="array" ref="G53">_xll.XLL.BLACK.PUT(f, sigma, F53, t)</f>
         <v>16.32689330971084</v>
       </c>
-      <c r="H53" s="2"/>
+      <c r="H53" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F53,t)</f>
+        <v>16.29535719875858</v>
+      </c>
       <c r="I53" cm="1">
         <f t="array" ref="I53">_xll.XLL.BLACK.PUT.IMPLIED(f, G53, F53, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J53" s="2"/>
-    </row>
-    <row r="54" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J53" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H53,F53,t)</f>
+        <v>0.19546451754846336</v>
+      </c>
+    </row>
+    <row r="54" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F54">
         <v>117</v>
       </c>
@@ -1272,14 +1565,20 @@
         <f t="array" ref="G54">_xll.XLL.BLACK.PUT(f, sigma, F54, t)</f>
         <v>17.269460583629098</v>
       </c>
-      <c r="H54" s="2"/>
+      <c r="H54" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F54,t)</f>
+        <v>17.240068605568112</v>
+      </c>
       <c r="I54" cm="1">
         <f t="array" ref="I54">_xll.XLL.BLACK.PUT.IMPLIED(f, G54, F54, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J54" s="2"/>
-    </row>
-    <row r="55" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J54" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H54,F54,t)</f>
+        <v>0.19517816151349443</v>
+      </c>
+    </row>
+    <row r="55" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F55">
         <v>118</v>
       </c>
@@ -1287,14 +1586,20 @@
         <f t="array" ref="G55">_xll.XLL.BLACK.PUT(f, sigma, F55, t)</f>
         <v>18.221219204170339</v>
       </c>
-      <c r="H55" s="2"/>
+      <c r="H55" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F55,t)</f>
+        <v>18.194118111378401</v>
+      </c>
       <c r="I55" cm="1">
         <f t="array" ref="I55">_xll.XLL.BLACK.PUT.IMPLIED(f, G55, F55, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J55" s="2"/>
-    </row>
-    <row r="56" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J55" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H55,F55,t)</f>
+        <v>0.19489425450188741</v>
+      </c>
+    </row>
+    <row r="56" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F56">
         <v>119</v>
       </c>
@@ -1302,14 +1607,20 @@
         <f t="array" ref="G56">_xll.XLL.BLACK.PUT(f, sigma, F56, t)</f>
         <v>19.180890108309001</v>
       </c>
-      <c r="H56" s="2"/>
+      <c r="H56" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F56,t)</f>
+        <v>19.156152903317306</v>
+      </c>
       <c r="I56" cm="1">
         <f t="array" ref="I56">_xll.XLL.BLACK.PUT.IMPLIED(f, G56, F56, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J56" s="2"/>
-    </row>
-    <row r="57" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J56" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H56,F56,t)</f>
+        <v>0.1946127557918918</v>
+      </c>
+    </row>
+    <row r="57" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F57">
         <v>120</v>
       </c>
@@ -1317,14 +1628,20 @@
         <f t="array" ref="G57">_xll.XLL.BLACK.PUT(f, sigma, F57, t)</f>
         <v>20.14733226325697</v>
       </c>
-      <c r="H57" s="2"/>
+      <c r="H57" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F57,t)</f>
+        <v>20.12496804698003</v>
+      </c>
       <c r="I57" cm="1">
         <f t="array" ref="I57">_xll.XLL.BLACK.PUT.IMPLIED(f, G57, F57, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J57" s="2"/>
-    </row>
-    <row r="58" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J57" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H57,F57,t)</f>
+        <v>0.19433362566998369</v>
+      </c>
+    </row>
+    <row r="58" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F58">
         <v>121</v>
       </c>
@@ -1332,14 +1649,20 @@
         <f t="array" ref="G58">_xll.XLL.BLACK.PUT(f, sigma, F58, t)</f>
         <v>21.119536094302745</v>
       </c>
-      <c r="H58" s="2"/>
+      <c r="H58" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F58,t)</f>
+        <v>21.099500543233205</v>
+      </c>
       <c r="I58" cm="1">
         <f t="array" ref="I58">_xll.XLL.BLACK.PUT.IMPLIED(f, G58, F58, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J58" s="2"/>
-    </row>
-    <row r="59" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J58" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H58,F58,t)</f>
+        <v>0.19405682539738733</v>
+      </c>
+    </row>
+    <row r="59" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F59">
         <v>122</v>
       </c>
@@ -1347,14 +1670,20 @@
         <f t="array" ref="G59">_xll.XLL.BLACK.PUT(f, sigma, F59, t)</f>
         <v>22.096615300806519</v>
       </c>
-      <c r="H59" s="2"/>
+      <c r="H59" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F59,t)</f>
+        <v>22.078821200533753</v>
+      </c>
       <c r="I59" cm="1">
         <f t="array" ref="I59">_xll.XLL.BLACK.PUT.IMPLIED(f, G59, F59, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J59" s="2"/>
-    </row>
-    <row r="60" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J59" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H59,F59,t)</f>
+        <v>0.19378231717859215</v>
+      </c>
+    </row>
+    <row r="60" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F60">
         <v>123</v>
       </c>
@@ -1362,14 +1691,20 @@
         <f t="array" ref="G60">_xll.XLL.BLACK.PUT(f, sigma, F60, t)</f>
         <v>23.077797596311726</v>
       </c>
-      <c r="H60" s="2"/>
+      <c r="H60" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F60,t)</f>
+        <v>23.062124968007112</v>
+      </c>
       <c r="I60" cm="1">
         <f t="array" ref="I60">_xll.XLL.BLACK.PUT.IMPLIED(f, G60, F60, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J60" s="2"/>
-    </row>
-    <row r="61" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J60" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H60,F60,t)</f>
+        <v>0.19351006413067628</v>
+      </c>
+    </row>
+    <row r="61" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F61">
         <v>124</v>
       </c>
@@ -1377,14 +1712,20 @@
         <f t="array" ref="G61">_xll.XLL.BLACK.PUT(f, sigma, F61, t)</f>
         <v>24.062414837222818</v>
       </c>
-      <c r="H61" s="2"/>
+      <c r="H61" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F61,t)</f>
+        <v>24.04872030681635</v>
+      </c>
       <c r="I61" cm="1">
         <f t="array" ref="I61">_xll.XLL.BLACK.PUT.IMPLIED(f, G61, F61, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J61" s="2"/>
-    </row>
-    <row r="62" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J61" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H61,F61,t)</f>
+        <v>0.19324003025443812</v>
+      </c>
+    </row>
+    <row r="62" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F62">
         <v>125</v>
       </c>
@@ -1392,14 +1733,20 @@
         <f t="array" ref="G62">_xll.XLL.BLACK.PUT(f, sigma, F62, t)</f>
         <v>25.04989292927732</v>
       </c>
-      <c r="H62" s="2"/>
+      <c r="H62" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F62,t)</f>
+        <v>25.038018097943663</v>
+      </c>
       <c r="I62" cm="1">
         <f t="array" ref="I62">_xll.XLL.BLACK.PUT.IMPLIED(f, G62, F62, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J62" s="2"/>
-    </row>
-    <row r="63" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J62" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H62,F62,t)</f>
+        <v>0.19297218040625874</v>
+      </c>
+    </row>
+    <row r="63" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F63">
         <v>126</v>
       </c>
@@ -1407,14 +1754,20 @@
         <f t="array" ref="G63">_xll.XLL.BLACK.PUT(f, sigma, F63, t)</f>
         <v>26.039741826510507</v>
       </c>
-      <c r="H63" s="2"/>
+      <c r="H63" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F63,t)</f>
+        <v>26.029520499927315</v>
+      </c>
       <c r="I63" cm="1">
         <f t="array" ref="I63">_xll.XLL.BLACK.PUT.IMPLIED(f, G63, F63, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J63" s="2"/>
-    </row>
-    <row r="64" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J63" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H63,F63,t)</f>
+        <v>0.19270648027075188</v>
+      </c>
+    </row>
+    <row r="64" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F64">
         <v>127</v>
       </c>
@@ -1422,14 +1775,20 @@
         <f t="array" ref="G64">_xll.XLL.BLACK.PUT(f, sigma, F64, t)</f>
         <v>27.031545866893069</v>
       </c>
-      <c r="H64" s="2"/>
+      <c r="H64" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F64,t)</f>
+        <v>27.022810085691404</v>
+      </c>
       <c r="I64" cm="1">
         <f t="array" ref="I64">_xll.XLL.BLACK.PUT.IMPLIED(f, G64, F64, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J64" s="2"/>
-    </row>
-    <row r="65" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J64" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H64,F64,t)</f>
+        <v>0.19244289633549364</v>
+      </c>
+    </row>
+    <row r="65" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F65">
         <v>128</v>
       </c>
@@ -1437,14 +1796,20 @@
         <f t="array" ref="G65">_xll.XLL.BLACK.PUT(f, sigma, F65, t)</f>
         <v>28.024954624625238</v>
       </c>
-      <c r="H65" s="2"/>
+      <c r="H65" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F65,t)</f>
+        <v>28.017539507525299</v>
+      </c>
       <c r="I65" cm="1">
         <f t="array" ref="I65">_xll.XLL.BLACK.PUT.IMPLIED(f, G65, F65, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J65" s="2"/>
-    </row>
-    <row r="66" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J65" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H65,F65,t)</f>
+        <v>0.19218139586568742</v>
+      </c>
+    </row>
+    <row r="66" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F66">
         <v>129</v>
       </c>
@@ -1452,14 +1817,20 @@
         <f t="array" ref="G66">_xll.XLL.BLACK.PUT(f, sigma, F66, t)</f>
         <v>29.01967440261366</v>
       </c>
-      <c r="H66" s="2"/>
+      <c r="H66" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F66,t)</f>
+        <v>29.013421866483313</v>
+      </c>
       <c r="I66" cm="1">
         <f t="array" ref="I66">_xll.XLL.BLACK.PUT.IMPLIED(f, G66, F66, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J66" s="2"/>
-    </row>
-    <row r="67" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J66" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H66,F66,t)</f>
+        <v>0.19192194688040323</v>
+      </c>
+    </row>
+    <row r="67" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F67">
         <v>130</v>
       </c>
@@ -1467,14 +1838,21 @@
         <f t="array" ref="G67">_xll.XLL.BLACK.PUT(f, sigma, F67, t)</f>
         <v>30.01546044060332</v>
       </c>
-      <c r="H67" s="2"/>
+      <c r="H67" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F67,t)</f>
+        <v>30.010221898820959</v>
+      </c>
       <c r="I67" cm="1">
         <f t="array" ref="I67">_xll.XLL.BLACK.PUT.IMPLIED(f, G67, F67, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J67" s="2"/>
+      <c r="J67" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H67,F67,t)</f>
+        <v>0.19166451812980059</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/final.xlsx
+++ b/final.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruiqi\source\repos\final1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wangg\source\repos\final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35ED88BA-6C00-4740-B955-0529C150A248}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E920C4A-1473-42B9-9F69-F97B04E4C0E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{59ABE93D-F590-4F15-A965-72CEF18EA92E}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="25440" windowHeight="13740" xr2:uid="{59ABE93D-F590-4F15-A965-72CEF18EA92E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -482,13 +482,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ED1841A-FD92-4362-9698-89095B3322F2}">
   <dimension ref="B2:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10">
@@ -576,7 +576,7 @@
       </c>
       <c r="J7" s="2">
         <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H7, F7, t)</f>
-        <v>0.21231052715334578</v>
+        <v>0.21231052715329932</v>
       </c>
     </row>
     <row r="8" spans="2:10">
